--- a/Code/Results/Cases/Case_1_222/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_222/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9963221526351422</v>
+        <v>1.022447764301858</v>
       </c>
       <c r="D2">
-        <v>1.033067545196469</v>
+        <v>1.043172239787303</v>
       </c>
       <c r="E2">
-        <v>1.003308548140888</v>
+        <v>1.02319583954603</v>
       </c>
       <c r="F2">
-        <v>1.029492597465351</v>
+        <v>1.047294593057895</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044924058800033</v>
+        <v>1.03582502473026</v>
       </c>
       <c r="J2">
-        <v>1.018613426723632</v>
+        <v>1.027633547173591</v>
       </c>
       <c r="K2">
-        <v>1.0440846450946</v>
+        <v>1.045946855277735</v>
       </c>
       <c r="L2">
-        <v>1.01472198127699</v>
+        <v>1.026027990127646</v>
       </c>
       <c r="M2">
-        <v>1.040555793044222</v>
+        <v>1.050057631968986</v>
       </c>
       <c r="N2">
-        <v>1.010180367130056</v>
+        <v>1.013273405258344</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9999101863996034</v>
+        <v>1.023216197186943</v>
       </c>
       <c r="D3">
-        <v>1.035646076887009</v>
+        <v>1.043747512852678</v>
       </c>
       <c r="E3">
-        <v>1.006101809588531</v>
+        <v>1.023843306046228</v>
       </c>
       <c r="F3">
-        <v>1.032759722596824</v>
+        <v>1.048052146965428</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045795059413255</v>
+        <v>1.035968399891887</v>
       </c>
       <c r="J3">
-        <v>1.020403300123848</v>
+        <v>1.028040973971687</v>
       </c>
       <c r="K3">
-        <v>1.045842303707087</v>
+        <v>1.046333726143478</v>
       </c>
       <c r="L3">
-        <v>1.016657207447105</v>
+        <v>1.026482718841767</v>
       </c>
       <c r="M3">
-        <v>1.042989916895615</v>
+        <v>1.05062714190919</v>
       </c>
       <c r="N3">
-        <v>1.010782323730157</v>
+        <v>1.01340944141458</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002192067996477</v>
+        <v>1.023714194270559</v>
       </c>
       <c r="D4">
-        <v>1.037288942639456</v>
+        <v>1.044120306626345</v>
       </c>
       <c r="E4">
-        <v>1.007884170937232</v>
+        <v>1.02426331769611</v>
       </c>
       <c r="F4">
-        <v>1.034843064385659</v>
+        <v>1.048543407707096</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046341135191482</v>
+        <v>1.036060312687169</v>
       </c>
       <c r="J4">
-        <v>1.021539866180999</v>
+        <v>1.028304703894755</v>
       </c>
       <c r="K4">
-        <v>1.046957226163873</v>
+        <v>1.046583907873848</v>
       </c>
       <c r="L4">
-        <v>1.017888363237976</v>
+        <v>1.026777330157236</v>
       </c>
       <c r="M4">
-        <v>1.044538393246453</v>
+        <v>1.050996059860621</v>
       </c>
       <c r="N4">
-        <v>1.011164433871772</v>
+        <v>1.013497464389435</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003142112821379</v>
+        <v>1.023923734599559</v>
       </c>
       <c r="D5">
-        <v>1.037973606131424</v>
+        <v>1.044277159616812</v>
       </c>
       <c r="E5">
-        <v>1.00862763497838</v>
+        <v>1.024440141790286</v>
       </c>
       <c r="F5">
-        <v>1.035711739063429</v>
+        <v>1.048750188240265</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046566572587477</v>
+        <v>1.036098746038854</v>
       </c>
       <c r="J5">
-        <v>1.022012626274385</v>
+        <v>1.028415597992068</v>
       </c>
       <c r="K5">
-        <v>1.047420679387838</v>
+        <v>1.046689046964206</v>
       </c>
       <c r="L5">
-        <v>1.018401018611175</v>
+        <v>1.026901272219351</v>
       </c>
       <c r="M5">
-        <v>1.0451831563438</v>
+        <v>1.051151248503688</v>
       </c>
       <c r="N5">
-        <v>1.01132334102194</v>
+        <v>1.013534468408046</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003301094385819</v>
+        <v>1.023958927981172</v>
       </c>
       <c r="D6">
-        <v>1.03808821631001</v>
+        <v>1.04430350351621</v>
       </c>
       <c r="E6">
-        <v>1.008752127909418</v>
+        <v>1.024469846006471</v>
       </c>
       <c r="F6">
-        <v>1.035857178740502</v>
+        <v>1.048784922460025</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046604183905044</v>
+        <v>1.036105187019037</v>
       </c>
       <c r="J6">
-        <v>1.0220917118864</v>
+        <v>1.028434218853052</v>
       </c>
       <c r="K6">
-        <v>1.047498189672598</v>
+        <v>1.046706698048727</v>
       </c>
       <c r="L6">
-        <v>1.018486810462727</v>
+        <v>1.026922087723577</v>
       </c>
       <c r="M6">
-        <v>1.045291054442521</v>
+        <v>1.051177310907157</v>
       </c>
       <c r="N6">
-        <v>1.011349921765019</v>
+        <v>1.013540681482447</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002204798564544</v>
+        <v>1.023716993444532</v>
       </c>
       <c r="D7">
-        <v>1.037298114534812</v>
+        <v>1.04412240199354</v>
       </c>
       <c r="E7">
-        <v>1.007894127881301</v>
+        <v>1.024265679443771</v>
       </c>
       <c r="F7">
-        <v>1.034854699555255</v>
+        <v>1.048546169721504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046344163656141</v>
+        <v>1.036060827048999</v>
       </c>
       <c r="J7">
-        <v>1.021546202921306</v>
+        <v>1.028306185582167</v>
       </c>
       <c r="K7">
-        <v>1.046963439383643</v>
+        <v>1.046585312896001</v>
       </c>
       <c r="L7">
-        <v>1.017895232549388</v>
+        <v>1.02677898593529</v>
       </c>
       <c r="M7">
-        <v>1.04454703284169</v>
+        <v>1.050998133125844</v>
       </c>
       <c r="N7">
-        <v>1.011166563951934</v>
+        <v>1.013497958842844</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9975431580335933</v>
+        <v>1.022707299298007</v>
       </c>
       <c r="D8">
-        <v>1.03394435924268</v>
+        <v>1.043366540146654</v>
       </c>
       <c r="E8">
-        <v>1.004257832191075</v>
+        <v>1.023414433724283</v>
       </c>
       <c r="F8">
-        <v>1.030603211694303</v>
+        <v>1.047550388459885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045222082933316</v>
+        <v>1.035873656746664</v>
       </c>
       <c r="J8">
-        <v>1.019222868885727</v>
+        <v>1.027771217981333</v>
       </c>
       <c r="K8">
-        <v>1.044683355104497</v>
+        <v>1.0460776301718</v>
       </c>
       <c r="L8">
-        <v>1.015380435680074</v>
+        <v>1.026181590043386</v>
       </c>
       <c r="M8">
-        <v>1.04138400490607</v>
+        <v>1.050250015127326</v>
       </c>
       <c r="N8">
-        <v>1.010385356359408</v>
+        <v>1.013319379341018</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9890109525599724</v>
+        <v>1.020934067506165</v>
       </c>
       <c r="D9">
-        <v>1.027832097097804</v>
+        <v>1.042038945893415</v>
       </c>
       <c r="E9">
-        <v>0.9976507571278349</v>
+        <v>1.021922616869433</v>
       </c>
       <c r="F9">
-        <v>1.022867542916735</v>
+        <v>1.045804011636977</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043107764465484</v>
+        <v>1.035537282616241</v>
       </c>
       <c r="J9">
-        <v>1.014957820860779</v>
+        <v>1.026829341885899</v>
       </c>
       <c r="K9">
-        <v>1.040489198812459</v>
+        <v>1.045181948885795</v>
       </c>
       <c r="L9">
-        <v>1.010782064496778</v>
+        <v>1.025131811262482</v>
       </c>
       <c r="M9">
-        <v>1.035600193706187</v>
+        <v>1.048934935686079</v>
       </c>
       <c r="N9">
-        <v>1.008950308179794</v>
+        <v>1.013004708947402</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9830903068636309</v>
+        <v>1.019756045874095</v>
       </c>
       <c r="D10">
-        <v>1.023611882151354</v>
+        <v>1.041156917771171</v>
       </c>
       <c r="E10">
-        <v>0.9931010147110573</v>
+        <v>1.020933695087288</v>
       </c>
       <c r="F10">
-        <v>1.017533512996581</v>
+        <v>1.044645489503367</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041601824796773</v>
+        <v>1.035308671826877</v>
       </c>
       <c r="J10">
-        <v>1.011991268918273</v>
+        <v>1.026202044467368</v>
       </c>
       <c r="K10">
-        <v>1.037567513845229</v>
+        <v>1.044584191906493</v>
       </c>
       <c r="L10">
-        <v>1.007595959805937</v>
+        <v>1.024434001805472</v>
       </c>
       <c r="M10">
-        <v>1.031593249889305</v>
+        <v>1.048060480505593</v>
       </c>
       <c r="N10">
-        <v>1.007951642179493</v>
+        <v>1.012794963625111</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9804669886432372</v>
+        <v>1.019246953790837</v>
       </c>
       <c r="D11">
-        <v>1.021747836530318</v>
+        <v>1.040775735751112</v>
       </c>
       <c r="E11">
-        <v>0.9910939543393407</v>
+        <v>1.020506839837869</v>
       </c>
       <c r="F11">
-        <v>1.015178831962064</v>
+        <v>1.044145224635236</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040925868355672</v>
+        <v>1.03520865625389</v>
       </c>
       <c r="J11">
-        <v>1.01067556186124</v>
+        <v>1.02593058148056</v>
       </c>
       <c r="K11">
-        <v>1.03627095293991</v>
+        <v>1.044325224683881</v>
       </c>
       <c r="L11">
-        <v>1.006185802987476</v>
+        <v>1.024132345684769</v>
       </c>
       <c r="M11">
-        <v>1.029820064518571</v>
+        <v>1.047682392826893</v>
       </c>
       <c r="N11">
-        <v>1.007508623971883</v>
+        <v>1.012704155924385</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9794832075467129</v>
+        <v>1.01905800637016</v>
       </c>
       <c r="D12">
-        <v>1.02104974406282</v>
+        <v>1.040634261382385</v>
       </c>
       <c r="E12">
-        <v>0.9903426535419249</v>
+        <v>1.020348492335587</v>
       </c>
       <c r="F12">
-        <v>1.014297164469534</v>
+        <v>1.043959614130527</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040671110248345</v>
+        <v>1.035171352723506</v>
       </c>
       <c r="J12">
-        <v>1.010181991503103</v>
+        <v>1.025829773571727</v>
       </c>
       <c r="K12">
-        <v>1.035784478292816</v>
+        <v>1.044229014063792</v>
       </c>
       <c r="L12">
-        <v>1.005657241726296</v>
+        <v>1.024020373792512</v>
       </c>
       <c r="M12">
-        <v>1.029155485391303</v>
+        <v>1.047542039892516</v>
       </c>
       <c r="N12">
-        <v>1.007342419346488</v>
+        <v>1.012670428406514</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9796946623955716</v>
+        <v>1.019098529321557</v>
       </c>
       <c r="D13">
-        <v>1.021199748562782</v>
+        <v>1.040664602939647</v>
       </c>
       <c r="E13">
-        <v>0.9905040759358577</v>
+        <v>1.020382449078081</v>
       </c>
       <c r="F13">
-        <v>1.014486607959081</v>
+        <v>1.043999418666287</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040725924667329</v>
+        <v>1.035179361381552</v>
       </c>
       <c r="J13">
-        <v>1.010288086778831</v>
+        <v>1.025851396033316</v>
       </c>
       <c r="K13">
-        <v>1.035889051796892</v>
+        <v>1.044249652388155</v>
       </c>
       <c r="L13">
-        <v>1.005770838522121</v>
+        <v>1.024044388652024</v>
       </c>
       <c r="M13">
-        <v>1.029298312069312</v>
+        <v>1.047572142165576</v>
       </c>
       <c r="N13">
-        <v>1.007378146324987</v>
+        <v>1.012677662952338</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9803858624240488</v>
+        <v>1.019231332225122</v>
       </c>
       <c r="D14">
-        <v>1.021690249484355</v>
+        <v>1.040764039105828</v>
       </c>
       <c r="E14">
-        <v>0.9910319710593819</v>
+        <v>1.020493746579027</v>
       </c>
       <c r="F14">
-        <v>1.015106098163763</v>
+        <v>1.044129877712425</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04090488553914</v>
+        <v>1.035205575854996</v>
       </c>
       <c r="J14">
-        <v>1.010634863332303</v>
+        <v>1.025922248138717</v>
       </c>
       <c r="K14">
-        <v>1.036230841112906</v>
+        <v>1.044317272255806</v>
       </c>
       <c r="L14">
-        <v>1.006142210228754</v>
+        <v>1.024123088481454</v>
       </c>
       <c r="M14">
-        <v>1.029765252591126</v>
+        <v>1.047670789450753</v>
       </c>
       <c r="N14">
-        <v>1.00749491940359</v>
+        <v>1.012701367943291</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9808104803174834</v>
+        <v>1.019313176683016</v>
       </c>
       <c r="D15">
-        <v>1.021991701624055</v>
+        <v>1.040825320127154</v>
       </c>
       <c r="E15">
-        <v>0.9913564504174445</v>
+        <v>1.020562347940598</v>
       </c>
       <c r="F15">
-        <v>1.01548684608513</v>
+        <v>1.044210285753449</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041014659097129</v>
+        <v>1.035221707168068</v>
       </c>
       <c r="J15">
-        <v>1.01084787466086</v>
+        <v>1.025965905882867</v>
       </c>
       <c r="K15">
-        <v>1.036440778334516</v>
+        <v>1.044358932661136</v>
       </c>
       <c r="L15">
-        <v>1.006370387601325</v>
+        <v>1.024171588241986</v>
       </c>
       <c r="M15">
-        <v>1.030052156695397</v>
+        <v>1.047731580708589</v>
       </c>
       <c r="N15">
-        <v>1.007566647026574</v>
+        <v>1.012715973717243</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9832631173543761</v>
+        <v>1.019789853854342</v>
       </c>
       <c r="D16">
-        <v>1.023734803848634</v>
+        <v>1.04118223138115</v>
       </c>
       <c r="E16">
-        <v>0.9932334178166724</v>
+        <v>1.02096205277601</v>
       </c>
       <c r="F16">
-        <v>1.017688814199883</v>
+        <v>1.044678719773801</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041646175137967</v>
+        <v>1.035315287990441</v>
       </c>
       <c r="J16">
-        <v>1.012077916594971</v>
+        <v>1.026220064077961</v>
       </c>
       <c r="K16">
-        <v>1.037652887123681</v>
+        <v>1.044601376006199</v>
       </c>
       <c r="L16">
-        <v>1.007688888743088</v>
+        <v>1.024454032391304</v>
       </c>
       <c r="M16">
-        <v>1.031710109086241</v>
+        <v>1.048085584845642</v>
       </c>
       <c r="N16">
-        <v>1.007980815937345</v>
+        <v>1.012800990557557</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9847853463789145</v>
+        <v>1.020089129701709</v>
       </c>
       <c r="D17">
-        <v>1.024818255245624</v>
+        <v>1.041406312536199</v>
       </c>
       <c r="E17">
-        <v>0.9944007262170189</v>
+        <v>1.021213141127133</v>
       </c>
       <c r="F17">
-        <v>1.01905781221256</v>
+        <v>1.04497292797276</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042035853861585</v>
+        <v>1.035373714745229</v>
       </c>
       <c r="J17">
-        <v>1.012841023400945</v>
+        <v>1.026379534841005</v>
       </c>
       <c r="K17">
-        <v>1.038404687535968</v>
+        <v>1.044753419391405</v>
       </c>
       <c r="L17">
-        <v>1.00850764845746</v>
+        <v>1.024631337066425</v>
       </c>
       <c r="M17">
-        <v>1.032739741300531</v>
+        <v>1.048307792841853</v>
       </c>
       <c r="N17">
-        <v>1.008237738801349</v>
+        <v>1.012854323311877</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9856675108614856</v>
+        <v>1.020263788503833</v>
       </c>
       <c r="D18">
-        <v>1.025446690115742</v>
+        <v>1.041537086730119</v>
       </c>
       <c r="E18">
-        <v>0.9950780445168014</v>
+        <v>1.021359727257165</v>
       </c>
       <c r="F18">
-        <v>1.019852001726745</v>
+        <v>1.045144667904006</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042260849699048</v>
+        <v>1.03540769507492</v>
       </c>
       <c r="J18">
-        <v>1.013283135497947</v>
+        <v>1.026472566876276</v>
       </c>
       <c r="K18">
-        <v>1.038840175769332</v>
+        <v>1.044842090644241</v>
       </c>
       <c r="L18">
-        <v>1.008982281639471</v>
+        <v>1.024734804023499</v>
       </c>
       <c r="M18">
-        <v>1.033336641732219</v>
+        <v>1.048437456635988</v>
       </c>
       <c r="N18">
-        <v>1.008386579861539</v>
+        <v>1.012885432665934</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9859673468325043</v>
+        <v>1.020323358910487</v>
       </c>
       <c r="D19">
-        <v>1.025660378187256</v>
+        <v>1.041581689404517</v>
       </c>
       <c r="E19">
-        <v>0.9953083967552849</v>
+        <v>1.021409731419038</v>
       </c>
       <c r="F19">
-        <v>1.02012207445939</v>
+        <v>1.045203249314174</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04233718050742</v>
+        <v>1.035419264671734</v>
       </c>
       <c r="J19">
-        <v>1.013433381428548</v>
+        <v>1.026504290973395</v>
       </c>
       <c r="K19">
-        <v>1.038988157440871</v>
+        <v>1.044872322984131</v>
       </c>
       <c r="L19">
-        <v>1.00914362657278</v>
+        <v>1.024770091701541</v>
       </c>
       <c r="M19">
-        <v>1.033539553555112</v>
+        <v>1.048481677676003</v>
       </c>
       <c r="N19">
-        <v>1.008437159878956</v>
+        <v>1.012896040350632</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9846226207212504</v>
+        <v>1.02005701026455</v>
       </c>
       <c r="D20">
-        <v>1.024702377044575</v>
+        <v>1.04138226334344</v>
       </c>
       <c r="E20">
-        <v>0.9942758542075143</v>
+        <v>1.021186188205829</v>
       </c>
       <c r="F20">
-        <v>1.018911380841814</v>
+        <v>1.044941348415827</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041994283271487</v>
+        <v>1.035367456342542</v>
       </c>
       <c r="J20">
-        <v>1.012759460306163</v>
+        <v>1.026362423530851</v>
       </c>
       <c r="K20">
-        <v>1.038324340329639</v>
+        <v>1.044737107917029</v>
       </c>
       <c r="L20">
-        <v>1.008420108165761</v>
+        <v>1.024612308962594</v>
       </c>
       <c r="M20">
-        <v>1.032629652229076</v>
+        <v>1.048283946465594</v>
       </c>
       <c r="N20">
-        <v>1.00821027907754</v>
+        <v>1.012848601078127</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9801825830869494</v>
+        <v>1.019192220867159</v>
       </c>
       <c r="D21">
-        <v>1.021545968226043</v>
+        <v>1.0407347544801</v>
       </c>
       <c r="E21">
-        <v>0.9908766808324807</v>
+        <v>1.020460966548508</v>
       </c>
       <c r="F21">
-        <v>1.014923870164321</v>
+        <v>1.044091454954889</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040852288301915</v>
+        <v>1.035197860571241</v>
       </c>
       <c r="J21">
-        <v>1.010532881843599</v>
+        <v>1.025901383243969</v>
       </c>
       <c r="K21">
-        <v>1.036130328463136</v>
+        <v>1.044297360392959</v>
       </c>
       <c r="L21">
-        <v>1.006032983549041</v>
+        <v>1.024099911215995</v>
       </c>
       <c r="M21">
-        <v>1.029627915910565</v>
+        <v>1.047641737903572</v>
       </c>
       <c r="N21">
-        <v>1.007460578606957</v>
+        <v>1.012694387341186</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9773365622484178</v>
+        <v>1.018649374109348</v>
       </c>
       <c r="D22">
-        <v>1.01952831017269</v>
+        <v>1.040328298297231</v>
       </c>
       <c r="E22">
-        <v>0.9887058677206967</v>
+        <v>1.020006181133578</v>
       </c>
       <c r="F22">
-        <v>1.012375922363223</v>
+        <v>1.04355831019537</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040112943663505</v>
+        <v>1.035090342462325</v>
       </c>
       <c r="J22">
-        <v>1.009104742076204</v>
+        <v>1.02561165730246</v>
       </c>
       <c r="K22">
-        <v>1.034722586322267</v>
+        <v>1.044020766455426</v>
       </c>
       <c r="L22">
-        <v>1.004504433644393</v>
+        <v>1.023778190472196</v>
       </c>
       <c r="M22">
-        <v>1.027706132995723</v>
+        <v>1.047238452481093</v>
       </c>
       <c r="N22">
-        <v>1.006979647213288</v>
+        <v>1.012597441782005</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9788505882297658</v>
+        <v>1.018937063318877</v>
       </c>
       <c r="D23">
-        <v>1.020601113639431</v>
+        <v>1.040543705296614</v>
       </c>
       <c r="E23">
-        <v>0.989859923832363</v>
+        <v>1.020247157980928</v>
       </c>
       <c r="F23">
-        <v>1.013730603254459</v>
+        <v>1.043840824168381</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040506937415734</v>
+        <v>1.035147423613488</v>
       </c>
       <c r="J23">
-        <v>1.009864560114143</v>
+        <v>1.025765231989167</v>
       </c>
       <c r="K23">
-        <v>1.035471589337871</v>
+        <v>1.044167403782491</v>
       </c>
       <c r="L23">
-        <v>1.005317430875973</v>
+        <v>1.02394869813186</v>
       </c>
       <c r="M23">
-        <v>1.028728245938827</v>
+        <v>1.047452193991448</v>
       </c>
       <c r="N23">
-        <v>1.007235524539673</v>
+        <v>1.012648832896437</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9846961671075884</v>
+        <v>1.020071523358458</v>
       </c>
       <c r="D24">
-        <v>1.024754748292514</v>
+        <v>1.041393129917995</v>
       </c>
       <c r="E24">
-        <v>0.994332289457081</v>
+        <v>1.02119836666772</v>
       </c>
       <c r="F24">
-        <v>1.018977560218295</v>
+        <v>1.044955617446835</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042013074324261</v>
+        <v>1.035370284551351</v>
       </c>
       <c r="J24">
-        <v>1.012796324401521</v>
+        <v>1.026370155347846</v>
       </c>
       <c r="K24">
-        <v>1.03836065510906</v>
+        <v>1.044744478410809</v>
       </c>
       <c r="L24">
-        <v>1.008459672914686</v>
+        <v>1.024620906795121</v>
       </c>
       <c r="M24">
-        <v>1.032679408058227</v>
+        <v>1.04829472145113</v>
       </c>
       <c r="N24">
-        <v>1.008222690085719</v>
+        <v>1.012851186705419</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.991256273211679</v>
+        <v>1.021391770289711</v>
       </c>
       <c r="D25">
-        <v>1.029437185286247</v>
+        <v>1.042381634921402</v>
       </c>
       <c r="E25">
-        <v>0.9993835738004142</v>
+        <v>1.022307304886865</v>
       </c>
       <c r="F25">
-        <v>1.024897602295941</v>
+        <v>1.046254492152966</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043671032720661</v>
+        <v>1.035625015530307</v>
       </c>
       <c r="J25">
-        <v>1.016081524726429</v>
+        <v>1.027072735912365</v>
       </c>
       <c r="K25">
-        <v>1.041595088873305</v>
+        <v>1.045413622646297</v>
       </c>
       <c r="L25">
-        <v>1.01199146653444</v>
+        <v>1.025402850510764</v>
       </c>
       <c r="M25">
-        <v>1.037121329714686</v>
+        <v>1.049274524379563</v>
       </c>
       <c r="N25">
-        <v>1.009328496106541</v>
+        <v>1.013086054716482</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_222/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_222/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022447764301858</v>
+        <v>0.9963221526351416</v>
       </c>
       <c r="D2">
-        <v>1.043172239787303</v>
+        <v>1.033067545196469</v>
       </c>
       <c r="E2">
-        <v>1.02319583954603</v>
+        <v>1.003308548140887</v>
       </c>
       <c r="F2">
-        <v>1.047294593057895</v>
+        <v>1.029492597465351</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03582502473026</v>
+        <v>1.044924058800032</v>
       </c>
       <c r="J2">
-        <v>1.027633547173591</v>
+        <v>1.018613426723632</v>
       </c>
       <c r="K2">
-        <v>1.045946855277735</v>
+        <v>1.0440846450946</v>
       </c>
       <c r="L2">
-        <v>1.026027990127646</v>
+        <v>1.014721981276989</v>
       </c>
       <c r="M2">
-        <v>1.050057631968986</v>
+        <v>1.040555793044221</v>
       </c>
       <c r="N2">
-        <v>1.013273405258344</v>
+        <v>1.010180367130056</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023216197186943</v>
+        <v>0.9999101863996034</v>
       </c>
       <c r="D3">
-        <v>1.043747512852678</v>
+        <v>1.035646076887009</v>
       </c>
       <c r="E3">
-        <v>1.023843306046228</v>
+        <v>1.006101809588531</v>
       </c>
       <c r="F3">
-        <v>1.048052146965428</v>
+        <v>1.032759722596824</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035968399891887</v>
+        <v>1.045795059413255</v>
       </c>
       <c r="J3">
-        <v>1.028040973971687</v>
+        <v>1.020403300123848</v>
       </c>
       <c r="K3">
-        <v>1.046333726143478</v>
+        <v>1.045842303707088</v>
       </c>
       <c r="L3">
-        <v>1.026482718841767</v>
+        <v>1.016657207447105</v>
       </c>
       <c r="M3">
-        <v>1.05062714190919</v>
+        <v>1.042989916895614</v>
       </c>
       <c r="N3">
-        <v>1.01340944141458</v>
+        <v>1.010782323730157</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023714194270559</v>
+        <v>1.002192067996476</v>
       </c>
       <c r="D4">
-        <v>1.044120306626345</v>
+        <v>1.037288942639455</v>
       </c>
       <c r="E4">
-        <v>1.02426331769611</v>
+        <v>1.007884170937231</v>
       </c>
       <c r="F4">
-        <v>1.048543407707096</v>
+        <v>1.034843064385659</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036060312687169</v>
+        <v>1.046341135191482</v>
       </c>
       <c r="J4">
-        <v>1.028304703894755</v>
+        <v>1.021539866180999</v>
       </c>
       <c r="K4">
-        <v>1.046583907873848</v>
+        <v>1.046957226163873</v>
       </c>
       <c r="L4">
-        <v>1.026777330157236</v>
+        <v>1.017888363237976</v>
       </c>
       <c r="M4">
-        <v>1.050996059860621</v>
+        <v>1.044538393246453</v>
       </c>
       <c r="N4">
-        <v>1.013497464389435</v>
+        <v>1.011164433871772</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023923734599559</v>
+        <v>1.003142112821379</v>
       </c>
       <c r="D5">
-        <v>1.044277159616812</v>
+        <v>1.037973606131424</v>
       </c>
       <c r="E5">
-        <v>1.024440141790286</v>
+        <v>1.00862763497838</v>
       </c>
       <c r="F5">
-        <v>1.048750188240265</v>
+        <v>1.035711739063429</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036098746038854</v>
+        <v>1.046566572587476</v>
       </c>
       <c r="J5">
-        <v>1.028415597992068</v>
+        <v>1.022012626274385</v>
       </c>
       <c r="K5">
-        <v>1.046689046964206</v>
+        <v>1.047420679387838</v>
       </c>
       <c r="L5">
-        <v>1.026901272219351</v>
+        <v>1.018401018611174</v>
       </c>
       <c r="M5">
-        <v>1.051151248503688</v>
+        <v>1.0451831563438</v>
       </c>
       <c r="N5">
-        <v>1.013534468408046</v>
+        <v>1.01132334102194</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023958927981172</v>
+        <v>1.003301094385819</v>
       </c>
       <c r="D6">
-        <v>1.04430350351621</v>
+        <v>1.03808821631001</v>
       </c>
       <c r="E6">
-        <v>1.024469846006471</v>
+        <v>1.008752127909418</v>
       </c>
       <c r="F6">
-        <v>1.048784922460025</v>
+        <v>1.035857178740502</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036105187019037</v>
+        <v>1.046604183905044</v>
       </c>
       <c r="J6">
-        <v>1.028434218853052</v>
+        <v>1.0220917118864</v>
       </c>
       <c r="K6">
-        <v>1.046706698048727</v>
+        <v>1.047498189672598</v>
       </c>
       <c r="L6">
-        <v>1.026922087723577</v>
+        <v>1.018486810462727</v>
       </c>
       <c r="M6">
-        <v>1.051177310907157</v>
+        <v>1.04529105444252</v>
       </c>
       <c r="N6">
-        <v>1.013540681482447</v>
+        <v>1.011349921765018</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023716993444532</v>
+        <v>1.002204798564543</v>
       </c>
       <c r="D7">
-        <v>1.04412240199354</v>
+        <v>1.037298114534812</v>
       </c>
       <c r="E7">
-        <v>1.024265679443771</v>
+        <v>1.0078941278813</v>
       </c>
       <c r="F7">
-        <v>1.048546169721504</v>
+        <v>1.034854699555254</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036060827048999</v>
+        <v>1.046344163656141</v>
       </c>
       <c r="J7">
-        <v>1.028306185582167</v>
+        <v>1.021546202921306</v>
       </c>
       <c r="K7">
-        <v>1.046585312896001</v>
+        <v>1.046963439383643</v>
       </c>
       <c r="L7">
-        <v>1.02677898593529</v>
+        <v>1.017895232549388</v>
       </c>
       <c r="M7">
-        <v>1.050998133125844</v>
+        <v>1.04454703284169</v>
       </c>
       <c r="N7">
-        <v>1.013497958842844</v>
+        <v>1.011166563951933</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022707299298007</v>
+        <v>0.9975431580335928</v>
       </c>
       <c r="D8">
-        <v>1.043366540146654</v>
+        <v>1.03394435924268</v>
       </c>
       <c r="E8">
-        <v>1.023414433724283</v>
+        <v>1.004257832191074</v>
       </c>
       <c r="F8">
-        <v>1.047550388459885</v>
+        <v>1.030603211694303</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035873656746664</v>
+        <v>1.045222082933316</v>
       </c>
       <c r="J8">
-        <v>1.027771217981333</v>
+        <v>1.019222868885727</v>
       </c>
       <c r="K8">
-        <v>1.0460776301718</v>
+        <v>1.044683355104497</v>
       </c>
       <c r="L8">
-        <v>1.026181590043386</v>
+        <v>1.015380435680073</v>
       </c>
       <c r="M8">
-        <v>1.050250015127326</v>
+        <v>1.041384004906069</v>
       </c>
       <c r="N8">
-        <v>1.013319379341018</v>
+        <v>1.010385356359408</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020934067506165</v>
+        <v>0.9890109525599726</v>
       </c>
       <c r="D9">
-        <v>1.042038945893415</v>
+        <v>1.027832097097805</v>
       </c>
       <c r="E9">
-        <v>1.021922616869433</v>
+        <v>0.9976507571278352</v>
       </c>
       <c r="F9">
-        <v>1.045804011636977</v>
+        <v>1.022867542916737</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035537282616241</v>
+        <v>1.043107764465485</v>
       </c>
       <c r="J9">
-        <v>1.026829341885899</v>
+        <v>1.014957820860779</v>
       </c>
       <c r="K9">
-        <v>1.045181948885795</v>
+        <v>1.04048919881246</v>
       </c>
       <c r="L9">
-        <v>1.025131811262482</v>
+        <v>1.010782064496778</v>
       </c>
       <c r="M9">
-        <v>1.048934935686079</v>
+        <v>1.035600193706188</v>
       </c>
       <c r="N9">
-        <v>1.013004708947402</v>
+        <v>1.008950308179794</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019756045874095</v>
+        <v>0.98309030686363</v>
       </c>
       <c r="D10">
-        <v>1.041156917771171</v>
+        <v>1.023611882151353</v>
       </c>
       <c r="E10">
-        <v>1.020933695087288</v>
+        <v>0.9931010147110565</v>
       </c>
       <c r="F10">
-        <v>1.044645489503367</v>
+        <v>1.01753351299658</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035308671826877</v>
+        <v>1.041601824796773</v>
       </c>
       <c r="J10">
-        <v>1.026202044467368</v>
+        <v>1.011991268918272</v>
       </c>
       <c r="K10">
-        <v>1.044584191906493</v>
+        <v>1.037567513845228</v>
       </c>
       <c r="L10">
-        <v>1.024434001805472</v>
+        <v>1.007595959805936</v>
       </c>
       <c r="M10">
-        <v>1.048060480505593</v>
+        <v>1.031593249889304</v>
       </c>
       <c r="N10">
-        <v>1.012794963625111</v>
+        <v>1.007951642179493</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019246953790837</v>
+        <v>0.9804669886432366</v>
       </c>
       <c r="D11">
-        <v>1.040775735751112</v>
+        <v>1.021747836530317</v>
       </c>
       <c r="E11">
-        <v>1.020506839837869</v>
+        <v>0.99109395433934</v>
       </c>
       <c r="F11">
-        <v>1.044145224635236</v>
+        <v>1.015178831962064</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03520865625389</v>
+        <v>1.040925868355671</v>
       </c>
       <c r="J11">
-        <v>1.02593058148056</v>
+        <v>1.01067556186124</v>
       </c>
       <c r="K11">
-        <v>1.044325224683881</v>
+        <v>1.036270952939909</v>
       </c>
       <c r="L11">
-        <v>1.024132345684769</v>
+        <v>1.006185802987475</v>
       </c>
       <c r="M11">
-        <v>1.047682392826893</v>
+        <v>1.02982006451857</v>
       </c>
       <c r="N11">
-        <v>1.012704155924385</v>
+        <v>1.007508623971882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01905800637016</v>
+        <v>0.9794832075467126</v>
       </c>
       <c r="D12">
-        <v>1.040634261382385</v>
+        <v>1.02104974406282</v>
       </c>
       <c r="E12">
-        <v>1.020348492335587</v>
+        <v>0.9903426535419243</v>
       </c>
       <c r="F12">
-        <v>1.043959614130527</v>
+        <v>1.014297164469534</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035171352723506</v>
+        <v>1.040671110248345</v>
       </c>
       <c r="J12">
-        <v>1.025829773571727</v>
+        <v>1.010181991503102</v>
       </c>
       <c r="K12">
-        <v>1.044229014063792</v>
+        <v>1.035784478292816</v>
       </c>
       <c r="L12">
-        <v>1.024020373792512</v>
+        <v>1.005657241726295</v>
       </c>
       <c r="M12">
-        <v>1.047542039892516</v>
+        <v>1.029155485391303</v>
       </c>
       <c r="N12">
-        <v>1.012670428406514</v>
+        <v>1.007342419346488</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019098529321557</v>
+        <v>0.9796946623955711</v>
       </c>
       <c r="D13">
-        <v>1.040664602939647</v>
+        <v>1.021199748562783</v>
       </c>
       <c r="E13">
-        <v>1.020382449078081</v>
+        <v>0.9905040759358572</v>
       </c>
       <c r="F13">
-        <v>1.043999418666287</v>
+        <v>1.014486607959082</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035179361381552</v>
+        <v>1.040725924667329</v>
       </c>
       <c r="J13">
-        <v>1.025851396033316</v>
+        <v>1.010288086778831</v>
       </c>
       <c r="K13">
-        <v>1.044249652388155</v>
+        <v>1.035889051796892</v>
       </c>
       <c r="L13">
-        <v>1.024044388652024</v>
+        <v>1.005770838522121</v>
       </c>
       <c r="M13">
-        <v>1.047572142165576</v>
+        <v>1.029298312069312</v>
       </c>
       <c r="N13">
-        <v>1.012677662952338</v>
+        <v>1.007378146324987</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019231332225122</v>
+        <v>0.9803858624240485</v>
       </c>
       <c r="D14">
-        <v>1.040764039105828</v>
+        <v>1.021690249484354</v>
       </c>
       <c r="E14">
-        <v>1.020493746579027</v>
+        <v>0.9910319710593816</v>
       </c>
       <c r="F14">
-        <v>1.044129877712425</v>
+        <v>1.015106098163763</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035205575854996</v>
+        <v>1.04090488553914</v>
       </c>
       <c r="J14">
-        <v>1.025922248138717</v>
+        <v>1.010634863332303</v>
       </c>
       <c r="K14">
-        <v>1.044317272255806</v>
+        <v>1.036230841112906</v>
       </c>
       <c r="L14">
-        <v>1.024123088481454</v>
+        <v>1.006142210228753</v>
       </c>
       <c r="M14">
-        <v>1.047670789450753</v>
+        <v>1.029765252591126</v>
       </c>
       <c r="N14">
-        <v>1.012701367943291</v>
+        <v>1.00749491940359</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019313176683016</v>
+        <v>0.9808104803174833</v>
       </c>
       <c r="D15">
-        <v>1.040825320127154</v>
+        <v>1.021991701624055</v>
       </c>
       <c r="E15">
-        <v>1.020562347940598</v>
+        <v>0.9913564504174445</v>
       </c>
       <c r="F15">
-        <v>1.044210285753449</v>
+        <v>1.015486846085131</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035221707168068</v>
+        <v>1.041014659097129</v>
       </c>
       <c r="J15">
-        <v>1.025965905882867</v>
+        <v>1.01084787466086</v>
       </c>
       <c r="K15">
-        <v>1.044358932661136</v>
+        <v>1.036440778334516</v>
       </c>
       <c r="L15">
-        <v>1.024171588241986</v>
+        <v>1.006370387601325</v>
       </c>
       <c r="M15">
-        <v>1.047731580708589</v>
+        <v>1.030052156695397</v>
       </c>
       <c r="N15">
-        <v>1.012715973717243</v>
+        <v>1.007566647026574</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019789853854342</v>
+        <v>0.9832631173543757</v>
       </c>
       <c r="D16">
-        <v>1.04118223138115</v>
+        <v>1.023734803848635</v>
       </c>
       <c r="E16">
-        <v>1.02096205277601</v>
+        <v>0.9932334178166718</v>
       </c>
       <c r="F16">
-        <v>1.044678719773801</v>
+        <v>1.017688814199883</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035315287990441</v>
+        <v>1.041646175137967</v>
       </c>
       <c r="J16">
-        <v>1.026220064077961</v>
+        <v>1.01207791659497</v>
       </c>
       <c r="K16">
-        <v>1.044601376006199</v>
+        <v>1.037652887123681</v>
       </c>
       <c r="L16">
-        <v>1.024454032391304</v>
+        <v>1.007688888743088</v>
       </c>
       <c r="M16">
-        <v>1.048085584845642</v>
+        <v>1.031710109086241</v>
       </c>
       <c r="N16">
-        <v>1.012800990557557</v>
+        <v>1.007980815937345</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020089129701709</v>
+        <v>0.9847853463789142</v>
       </c>
       <c r="D17">
-        <v>1.041406312536199</v>
+        <v>1.024818255245624</v>
       </c>
       <c r="E17">
-        <v>1.021213141127133</v>
+        <v>0.9944007262170187</v>
       </c>
       <c r="F17">
-        <v>1.04497292797276</v>
+        <v>1.01905781221256</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035373714745229</v>
+        <v>1.042035853861585</v>
       </c>
       <c r="J17">
-        <v>1.026379534841005</v>
+        <v>1.012841023400945</v>
       </c>
       <c r="K17">
-        <v>1.044753419391405</v>
+        <v>1.038404687535968</v>
       </c>
       <c r="L17">
-        <v>1.024631337066425</v>
+        <v>1.00850764845746</v>
       </c>
       <c r="M17">
-        <v>1.048307792841853</v>
+        <v>1.032739741300531</v>
       </c>
       <c r="N17">
-        <v>1.012854323311877</v>
+        <v>1.008237738801349</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020263788503833</v>
+        <v>0.9856675108614853</v>
       </c>
       <c r="D18">
-        <v>1.041537086730119</v>
+        <v>1.025446690115742</v>
       </c>
       <c r="E18">
-        <v>1.021359727257165</v>
+        <v>0.995078044516801</v>
       </c>
       <c r="F18">
-        <v>1.045144667904006</v>
+        <v>1.019852001726745</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03540769507492</v>
+        <v>1.042260849699048</v>
       </c>
       <c r="J18">
-        <v>1.026472566876276</v>
+        <v>1.013283135497946</v>
       </c>
       <c r="K18">
-        <v>1.044842090644241</v>
+        <v>1.038840175769332</v>
       </c>
       <c r="L18">
-        <v>1.024734804023499</v>
+        <v>1.00898228163947</v>
       </c>
       <c r="M18">
-        <v>1.048437456635988</v>
+        <v>1.033336641732219</v>
       </c>
       <c r="N18">
-        <v>1.012885432665934</v>
+        <v>1.008386579861539</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020323358910487</v>
+        <v>0.9859673468325038</v>
       </c>
       <c r="D19">
-        <v>1.041581689404517</v>
+        <v>1.025660378187256</v>
       </c>
       <c r="E19">
-        <v>1.021409731419038</v>
+        <v>0.9953083967552844</v>
       </c>
       <c r="F19">
-        <v>1.045203249314174</v>
+        <v>1.020122074459389</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035419264671734</v>
+        <v>1.04233718050742</v>
       </c>
       <c r="J19">
-        <v>1.026504290973395</v>
+        <v>1.013433381428548</v>
       </c>
       <c r="K19">
-        <v>1.044872322984131</v>
+        <v>1.038988157440871</v>
       </c>
       <c r="L19">
-        <v>1.024770091701541</v>
+        <v>1.00914362657278</v>
       </c>
       <c r="M19">
-        <v>1.048481677676003</v>
+        <v>1.033539553555112</v>
       </c>
       <c r="N19">
-        <v>1.012896040350632</v>
+        <v>1.008437159878956</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02005701026455</v>
+        <v>0.9846226207212496</v>
       </c>
       <c r="D20">
-        <v>1.04138226334344</v>
+        <v>1.024702377044575</v>
       </c>
       <c r="E20">
-        <v>1.021186188205829</v>
+        <v>0.9942758542075137</v>
       </c>
       <c r="F20">
-        <v>1.044941348415827</v>
+        <v>1.018911380841814</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035367456342542</v>
+        <v>1.041994283271487</v>
       </c>
       <c r="J20">
-        <v>1.026362423530851</v>
+        <v>1.012759460306163</v>
       </c>
       <c r="K20">
-        <v>1.044737107917029</v>
+        <v>1.038324340329639</v>
       </c>
       <c r="L20">
-        <v>1.024612308962594</v>
+        <v>1.00842010816576</v>
       </c>
       <c r="M20">
-        <v>1.048283946465594</v>
+        <v>1.032629652229076</v>
       </c>
       <c r="N20">
-        <v>1.012848601078127</v>
+        <v>1.00821027907754</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019192220867159</v>
+        <v>0.9801825830869493</v>
       </c>
       <c r="D21">
-        <v>1.0407347544801</v>
+        <v>1.021545968226043</v>
       </c>
       <c r="E21">
-        <v>1.020460966548508</v>
+        <v>0.9908766808324804</v>
       </c>
       <c r="F21">
-        <v>1.044091454954889</v>
+        <v>1.014923870164321</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035197860571241</v>
+        <v>1.040852288301915</v>
       </c>
       <c r="J21">
-        <v>1.025901383243969</v>
+        <v>1.010532881843599</v>
       </c>
       <c r="K21">
-        <v>1.044297360392959</v>
+        <v>1.036130328463136</v>
       </c>
       <c r="L21">
-        <v>1.024099911215995</v>
+        <v>1.006032983549041</v>
       </c>
       <c r="M21">
-        <v>1.047641737903572</v>
+        <v>1.029627915910565</v>
       </c>
       <c r="N21">
-        <v>1.012694387341186</v>
+        <v>1.007460578606957</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018649374109348</v>
+        <v>0.9773365622484177</v>
       </c>
       <c r="D22">
-        <v>1.040328298297231</v>
+        <v>1.01952831017269</v>
       </c>
       <c r="E22">
-        <v>1.020006181133578</v>
+        <v>0.9887058677206966</v>
       </c>
       <c r="F22">
-        <v>1.04355831019537</v>
+        <v>1.012375922363224</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035090342462325</v>
+        <v>1.040112943663505</v>
       </c>
       <c r="J22">
-        <v>1.02561165730246</v>
+        <v>1.009104742076204</v>
       </c>
       <c r="K22">
-        <v>1.044020766455426</v>
+        <v>1.034722586322267</v>
       </c>
       <c r="L22">
-        <v>1.023778190472196</v>
+        <v>1.004504433644393</v>
       </c>
       <c r="M22">
-        <v>1.047238452481093</v>
+        <v>1.027706132995723</v>
       </c>
       <c r="N22">
-        <v>1.012597441782005</v>
+        <v>1.006979647213288</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018937063318877</v>
+        <v>0.9788505882297658</v>
       </c>
       <c r="D23">
-        <v>1.040543705296614</v>
+        <v>1.020601113639431</v>
       </c>
       <c r="E23">
-        <v>1.020247157980928</v>
+        <v>0.9898599238323629</v>
       </c>
       <c r="F23">
-        <v>1.043840824168381</v>
+        <v>1.013730603254459</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035147423613488</v>
+        <v>1.040506937415733</v>
       </c>
       <c r="J23">
-        <v>1.025765231989167</v>
+        <v>1.009864560114143</v>
       </c>
       <c r="K23">
-        <v>1.044167403782491</v>
+        <v>1.035471589337871</v>
       </c>
       <c r="L23">
-        <v>1.02394869813186</v>
+        <v>1.005317430875973</v>
       </c>
       <c r="M23">
-        <v>1.047452193991448</v>
+        <v>1.028728245938827</v>
       </c>
       <c r="N23">
-        <v>1.012648832896437</v>
+        <v>1.007235524539673</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020071523358458</v>
+        <v>0.984696167107588</v>
       </c>
       <c r="D24">
-        <v>1.041393129917995</v>
+        <v>1.024754748292513</v>
       </c>
       <c r="E24">
-        <v>1.02119836666772</v>
+        <v>0.9943322894570804</v>
       </c>
       <c r="F24">
-        <v>1.044955617446835</v>
+        <v>1.018977560218295</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035370284551351</v>
+        <v>1.042013074324261</v>
       </c>
       <c r="J24">
-        <v>1.026370155347846</v>
+        <v>1.012796324401521</v>
       </c>
       <c r="K24">
-        <v>1.044744478410809</v>
+        <v>1.03836065510906</v>
       </c>
       <c r="L24">
-        <v>1.024620906795121</v>
+        <v>1.008459672914686</v>
       </c>
       <c r="M24">
-        <v>1.04829472145113</v>
+        <v>1.032679408058227</v>
       </c>
       <c r="N24">
-        <v>1.012851186705419</v>
+        <v>1.008222690085719</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021391770289711</v>
+        <v>0.991256273211679</v>
       </c>
       <c r="D25">
-        <v>1.042381634921402</v>
+        <v>1.029437185286247</v>
       </c>
       <c r="E25">
-        <v>1.022307304886865</v>
+        <v>0.9993835738004143</v>
       </c>
       <c r="F25">
-        <v>1.046254492152966</v>
+        <v>1.024897602295941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035625015530307</v>
+        <v>1.043671032720661</v>
       </c>
       <c r="J25">
-        <v>1.027072735912365</v>
+        <v>1.016081524726429</v>
       </c>
       <c r="K25">
-        <v>1.045413622646297</v>
+        <v>1.041595088873305</v>
       </c>
       <c r="L25">
-        <v>1.025402850510764</v>
+        <v>1.01199146653444</v>
       </c>
       <c r="M25">
-        <v>1.049274524379563</v>
+        <v>1.037121329714686</v>
       </c>
       <c r="N25">
-        <v>1.013086054716482</v>
+        <v>1.009328496106541</v>
       </c>
     </row>
   </sheetData>
